--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pla2g10-Pla2r1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pla2g10-Pla2r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Pla2g10</t>
   </si>
   <si>
     <t>Pla2r1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.07287566666666666</v>
+        <v>0.191414</v>
       </c>
       <c r="H2">
-        <v>0.218627</v>
+        <v>0.574242</v>
       </c>
       <c r="I2">
-        <v>0.05106178343368872</v>
+        <v>0.1152495606707829</v>
       </c>
       <c r="J2">
-        <v>0.05106178343368872</v>
+        <v>0.1152495606707829</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2283676666666667</v>
+        <v>0.1060506666666667</v>
       </c>
       <c r="N2">
-        <v>0.685103</v>
+        <v>0.318152</v>
       </c>
       <c r="O2">
-        <v>0.01667656277951103</v>
+        <v>0.007179517892818991</v>
       </c>
       <c r="P2">
-        <v>0.01667656277951103</v>
+        <v>0.00717951789281899</v>
       </c>
       <c r="Q2">
-        <v>0.01664244595344444</v>
+        <v>0.02029958230933333</v>
       </c>
       <c r="R2">
-        <v>0.149782013581</v>
+        <v>0.182696240784</v>
       </c>
       <c r="S2">
-        <v>0.000851535037065706</v>
+        <v>0.0008274362829754135</v>
       </c>
       <c r="T2">
-        <v>0.0008515350370657061</v>
+        <v>0.0008274362829754133</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.07287566666666666</v>
+        <v>0.191414</v>
       </c>
       <c r="H3">
-        <v>0.218627</v>
+        <v>0.574242</v>
       </c>
       <c r="I3">
-        <v>0.05106178343368872</v>
+        <v>0.1152495606707829</v>
       </c>
       <c r="J3">
-        <v>0.05106178343368872</v>
+        <v>0.1152495606707829</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>21.09706</v>
       </c>
       <c r="O3">
-        <v>0.5135380308553764</v>
+        <v>0.4760828778567346</v>
       </c>
       <c r="P3">
-        <v>0.5135380308553764</v>
+        <v>0.4760828778567345</v>
       </c>
       <c r="Q3">
-        <v>0.5124874374022221</v>
+        <v>1.346090880946667</v>
       </c>
       <c r="R3">
-        <v>4.612386936619999</v>
+        <v>12.11481792852</v>
       </c>
       <c r="S3">
-        <v>0.02622216771650018</v>
+        <v>0.05486834251587064</v>
       </c>
       <c r="T3">
-        <v>0.02622216771650019</v>
+        <v>0.05486834251587063</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.07287566666666666</v>
+        <v>0.191414</v>
       </c>
       <c r="H4">
-        <v>0.218627</v>
+        <v>0.574242</v>
       </c>
       <c r="I4">
-        <v>0.05106178343368872</v>
+        <v>0.1152495606707829</v>
       </c>
       <c r="J4">
-        <v>0.05106178343368872</v>
+        <v>0.1152495606707829</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.392099333333333</v>
+        <v>7.554679333333333</v>
       </c>
       <c r="N4">
-        <v>19.176298</v>
+        <v>22.664038</v>
       </c>
       <c r="O4">
-        <v>0.4667834434758157</v>
+        <v>0.51144379524419</v>
       </c>
       <c r="P4">
-        <v>0.4667834434758157</v>
+        <v>0.5114437952441899</v>
       </c>
       <c r="Q4">
-        <v>0.4658285003162222</v>
+        <v>1.446071389910667</v>
       </c>
       <c r="R4">
-        <v>4.192456502845999</v>
+        <v>13.014642509196</v>
       </c>
       <c r="S4">
-        <v>0.02383479510119358</v>
+        <v>0.05894367270969073</v>
       </c>
       <c r="T4">
-        <v>0.02383479510119358</v>
+        <v>0.05894367270969071</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.07287566666666666</v>
+        <v>0.191414</v>
       </c>
       <c r="H5">
-        <v>0.218627</v>
+        <v>0.574242</v>
       </c>
       <c r="I5">
-        <v>0.05106178343368872</v>
+        <v>0.1152495606707829</v>
       </c>
       <c r="J5">
-        <v>0.05106178343368872</v>
+        <v>0.1152495606707829</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.04110866666666667</v>
+        <v>0.07819633333333333</v>
       </c>
       <c r="N5">
-        <v>0.123326</v>
+        <v>0.234589</v>
       </c>
       <c r="O5">
-        <v>0.003001962889296905</v>
+        <v>0.005293809006256488</v>
       </c>
       <c r="P5">
-        <v>0.003001962889296904</v>
+        <v>0.005293809006256488</v>
       </c>
       <c r="Q5">
-        <v>0.002995821489111111</v>
+        <v>0.01496787294866667</v>
       </c>
       <c r="R5">
-        <v>0.026962393402</v>
+        <v>0.134710856538</v>
       </c>
       <c r="S5">
-        <v>0.000153285578929249</v>
+        <v>0.0006101091622460939</v>
       </c>
       <c r="T5">
-        <v>0.000153285578929249</v>
+        <v>0.0006101091622460938</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>1.799619</v>
       </c>
       <c r="I6">
-        <v>0.420312933174546</v>
+        <v>0.361180998820695</v>
       </c>
       <c r="J6">
-        <v>0.4203129331745459</v>
+        <v>0.361180998820695</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.2283676666666667</v>
+        <v>0.1060506666666667</v>
       </c>
       <c r="N6">
-        <v>0.685103</v>
+        <v>0.318152</v>
       </c>
       <c r="O6">
-        <v>0.01667656277951103</v>
+        <v>0.007179517892818991</v>
       </c>
       <c r="P6">
-        <v>0.01667656277951103</v>
+        <v>0.00717951789281899</v>
       </c>
       <c r="Q6">
-        <v>0.1369915973063333</v>
+        <v>0.06361693156533334</v>
       </c>
       <c r="R6">
-        <v>1.232924375757</v>
+        <v>0.5725523840879999</v>
       </c>
       <c r="S6">
-        <v>0.007009375017125739</v>
+        <v>0.002593105443579415</v>
       </c>
       <c r="T6">
-        <v>0.007009375017125738</v>
+        <v>0.002593105443579415</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>1.799619</v>
       </c>
       <c r="I7">
-        <v>0.420312933174546</v>
+        <v>0.361180998820695</v>
       </c>
       <c r="J7">
-        <v>0.4203129331745459</v>
+        <v>0.361180998820695</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>21.09706</v>
       </c>
       <c r="O7">
-        <v>0.5135380308553764</v>
+        <v>0.4760828778567346</v>
       </c>
       <c r="P7">
-        <v>0.5135380308553764</v>
+        <v>0.4760828778567345</v>
       </c>
       <c r="Q7">
         <v>4.218518891126666</v>
@@ -883,10 +883,10 @@
         <v>37.96667002013999</v>
       </c>
       <c r="S7">
-        <v>0.2158466760455038</v>
+        <v>0.1719520893457264</v>
       </c>
       <c r="T7">
-        <v>0.2158466760455037</v>
+        <v>0.1719520893457263</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>1.799619</v>
       </c>
       <c r="I8">
-        <v>0.420312933174546</v>
+        <v>0.361180998820695</v>
       </c>
       <c r="J8">
-        <v>0.4203129331745459</v>
+        <v>0.361180998820695</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.392099333333333</v>
+        <v>7.554679333333333</v>
       </c>
       <c r="N8">
-        <v>19.176298</v>
+        <v>22.664038</v>
       </c>
       <c r="O8">
-        <v>0.4667834434758157</v>
+        <v>0.51144379524419</v>
       </c>
       <c r="P8">
-        <v>0.4667834434758157</v>
+        <v>0.5114437952441899</v>
       </c>
       <c r="Q8">
-        <v>3.834447803384667</v>
+        <v>4.531848155724666</v>
       </c>
       <c r="R8">
-        <v>34.51003023046199</v>
+        <v>40.786633401522</v>
       </c>
       <c r="S8">
-        <v>0.196195118284635</v>
+        <v>0.1847237808069436</v>
       </c>
       <c r="T8">
-        <v>0.196195118284635</v>
+        <v>0.1847237808069436</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,40 +977,40 @@
         <v>1.799619</v>
       </c>
       <c r="I9">
-        <v>0.420312933174546</v>
+        <v>0.361180998820695</v>
       </c>
       <c r="J9">
-        <v>0.4203129331745459</v>
+        <v>0.361180998820695</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.04110866666666667</v>
+        <v>0.07819633333333333</v>
       </c>
       <c r="N9">
-        <v>0.123326</v>
+        <v>0.234589</v>
       </c>
       <c r="O9">
-        <v>0.003001962889296905</v>
+        <v>0.005293809006256488</v>
       </c>
       <c r="P9">
-        <v>0.003001962889296904</v>
+        <v>0.005293809006256488</v>
       </c>
       <c r="Q9">
-        <v>0.02465997919933333</v>
+        <v>0.04690786906566666</v>
       </c>
       <c r="R9">
-        <v>0.221939812794</v>
+        <v>0.4221708215909999</v>
       </c>
       <c r="S9">
-        <v>0.001261763827281517</v>
+        <v>0.00191202322444571</v>
       </c>
       <c r="T9">
-        <v>0.001261763827281516</v>
+        <v>0.001912023224445709</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.7544569999999999</v>
+        <v>0.6933183333333334</v>
       </c>
       <c r="H10">
-        <v>2.263371</v>
+        <v>2.079955</v>
       </c>
       <c r="I10">
-        <v>0.5286252833917653</v>
+        <v>0.417444039211688</v>
       </c>
       <c r="J10">
-        <v>0.5286252833917653</v>
+        <v>0.417444039211688</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.2283676666666667</v>
+        <v>0.1060506666666667</v>
       </c>
       <c r="N10">
-        <v>0.685103</v>
+        <v>0.318152</v>
       </c>
       <c r="O10">
-        <v>0.01667656277951103</v>
+        <v>0.007179517892818991</v>
       </c>
       <c r="P10">
-        <v>0.01667656277951103</v>
+        <v>0.00717951789281899</v>
       </c>
       <c r="Q10">
-        <v>0.1722935846903333</v>
+        <v>0.07352687146222223</v>
       </c>
       <c r="R10">
-        <v>1.550642262213</v>
+        <v>0.66174184316</v>
       </c>
       <c r="S10">
-        <v>0.008815652725319582</v>
+        <v>0.002997046948770947</v>
       </c>
       <c r="T10">
-        <v>0.008815652725319582</v>
+        <v>0.002997046948770946</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.7544569999999999</v>
+        <v>0.6933183333333334</v>
       </c>
       <c r="H11">
-        <v>2.263371</v>
+        <v>2.079955</v>
       </c>
       <c r="I11">
-        <v>0.5286252833917653</v>
+        <v>0.417444039211688</v>
       </c>
       <c r="J11">
-        <v>0.5286252833917653</v>
+        <v>0.417444039211688</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>21.09706</v>
       </c>
       <c r="O11">
-        <v>0.5135380308553764</v>
+        <v>0.4760828778567346</v>
       </c>
       <c r="P11">
-        <v>0.5135380308553764</v>
+        <v>0.4760828778567345</v>
       </c>
       <c r="Q11">
-        <v>5.305608198806666</v>
+        <v>4.875659492477777</v>
       </c>
       <c r="R11">
-        <v>47.75047378925999</v>
+        <v>43.8809354323</v>
       </c>
       <c r="S11">
-        <v>0.2714691870933725</v>
+        <v>0.19873795953204</v>
       </c>
       <c r="T11">
-        <v>0.2714691870933725</v>
+        <v>0.19873795953204</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.7544569999999999</v>
+        <v>0.6933183333333334</v>
       </c>
       <c r="H12">
-        <v>2.263371</v>
+        <v>2.079955</v>
       </c>
       <c r="I12">
-        <v>0.5286252833917653</v>
+        <v>0.417444039211688</v>
       </c>
       <c r="J12">
-        <v>0.5286252833917653</v>
+        <v>0.417444039211688</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.392099333333333</v>
+        <v>7.554679333333333</v>
       </c>
       <c r="N12">
-        <v>19.176298</v>
+        <v>22.664038</v>
       </c>
       <c r="O12">
-        <v>0.4667834434758157</v>
+        <v>0.51144379524419</v>
       </c>
       <c r="P12">
-        <v>0.4667834434758157</v>
+        <v>0.5114437952441899</v>
       </c>
       <c r="Q12">
-        <v>4.822564086728666</v>
+        <v>5.237797684254444</v>
       </c>
       <c r="R12">
-        <v>43.403076780558</v>
+        <v>47.14017915829</v>
       </c>
       <c r="S12">
-        <v>0.2467535300899872</v>
+        <v>0.2134991637164902</v>
       </c>
       <c r="T12">
-        <v>0.2467535300899871</v>
+        <v>0.2134991637164902</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.6933183333333334</v>
+      </c>
+      <c r="H13">
+        <v>2.079955</v>
+      </c>
+      <c r="I13">
+        <v>0.417444039211688</v>
+      </c>
+      <c r="J13">
+        <v>0.417444039211688</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.07819633333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.234589</v>
+      </c>
+      <c r="O13">
+        <v>0.005293809006256488</v>
+      </c>
+      <c r="P13">
+        <v>0.005293809006256488</v>
+      </c>
+      <c r="Q13">
+        <v>0.05421495149944444</v>
+      </c>
+      <c r="R13">
+        <v>0.487934563495</v>
+      </c>
+      <c r="S13">
+        <v>0.002209869014386921</v>
+      </c>
+      <c r="T13">
+        <v>0.002209869014386921</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.17626</v>
+      </c>
+      <c r="H14">
+        <v>0.52878</v>
+      </c>
+      <c r="I14">
+        <v>0.106125401296834</v>
+      </c>
+      <c r="J14">
+        <v>0.106125401296834</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.1060506666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.318152</v>
+      </c>
+      <c r="O14">
+        <v>0.007179517892818991</v>
+      </c>
+      <c r="P14">
+        <v>0.00717951789281899</v>
+      </c>
+      <c r="Q14">
+        <v>0.01869249050666667</v>
+      </c>
+      <c r="R14">
+        <v>0.16823241456</v>
+      </c>
+      <c r="S14">
+        <v>0.0007619292174932156</v>
+      </c>
+      <c r="T14">
+        <v>0.0007619292174932154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.17626</v>
+      </c>
+      <c r="H15">
+        <v>0.52878</v>
+      </c>
+      <c r="I15">
+        <v>0.106125401296834</v>
+      </c>
+      <c r="J15">
+        <v>0.106125401296834</v>
+      </c>
+      <c r="K15">
         <v>3</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.7544569999999999</v>
-      </c>
-      <c r="H13">
-        <v>2.263371</v>
-      </c>
-      <c r="I13">
-        <v>0.5286252833917653</v>
-      </c>
-      <c r="J13">
-        <v>0.5286252833917653</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.04110866666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.123326</v>
-      </c>
-      <c r="O13">
-        <v>0.003001962889296905</v>
-      </c>
-      <c r="P13">
-        <v>0.003001962889296904</v>
-      </c>
-      <c r="Q13">
-        <v>0.03101472132733333</v>
-      </c>
-      <c r="R13">
-        <v>0.279132491946</v>
-      </c>
-      <c r="S13">
-        <v>0.001586913483086139</v>
-      </c>
-      <c r="T13">
-        <v>0.001586913483086138</v>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.032353333333333</v>
+      </c>
+      <c r="N15">
+        <v>21.09706</v>
+      </c>
+      <c r="O15">
+        <v>0.4760828778567346</v>
+      </c>
+      <c r="P15">
+        <v>0.4760828778567345</v>
+      </c>
+      <c r="Q15">
+        <v>1.239522598533333</v>
+      </c>
+      <c r="R15">
+        <v>11.1557033868</v>
+      </c>
+      <c r="S15">
+        <v>0.05052448646309757</v>
+      </c>
+      <c r="T15">
+        <v>0.05052448646309757</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.17626</v>
+      </c>
+      <c r="H16">
+        <v>0.52878</v>
+      </c>
+      <c r="I16">
+        <v>0.106125401296834</v>
+      </c>
+      <c r="J16">
+        <v>0.106125401296834</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>7.554679333333333</v>
+      </c>
+      <c r="N16">
+        <v>22.664038</v>
+      </c>
+      <c r="O16">
+        <v>0.51144379524419</v>
+      </c>
+      <c r="P16">
+        <v>0.5114437952441899</v>
+      </c>
+      <c r="Q16">
+        <v>1.331587779293333</v>
+      </c>
+      <c r="R16">
+        <v>11.98429001364</v>
+      </c>
+      <c r="S16">
+        <v>0.05427717801106547</v>
+      </c>
+      <c r="T16">
+        <v>0.05427717801106547</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.17626</v>
+      </c>
+      <c r="H17">
+        <v>0.52878</v>
+      </c>
+      <c r="I17">
+        <v>0.106125401296834</v>
+      </c>
+      <c r="J17">
+        <v>0.106125401296834</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.07819633333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.234589</v>
+      </c>
+      <c r="O17">
+        <v>0.005293809006256488</v>
+      </c>
+      <c r="P17">
+        <v>0.005293809006256488</v>
+      </c>
+      <c r="Q17">
+        <v>0.01378288571333333</v>
+      </c>
+      <c r="R17">
+        <v>0.12404597142</v>
+      </c>
+      <c r="S17">
+        <v>0.0005618076051777639</v>
+      </c>
+      <c r="T17">
+        <v>0.0005618076051777639</v>
       </c>
     </row>
   </sheetData>
